--- a/OnBoard/output/trust/catch_sample/Catch_sample_Trust_48.xlsx
+++ b/OnBoard/output/trust/catch_sample/Catch_sample_Trust_48.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,6 +543,92 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SOLEMON2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>RAJAAST</t>
+        </is>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SIMRANDO</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SOLEMON2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>RAJAAST</t>
+        </is>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SIMRANDO</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
